--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Happiest Minds Technologies Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Happiest Minds Technologies Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -788,7 +788,7 @@
         <v>21.58</v>
       </c>
       <c r="Z3">
-        <v>50.48999999999999</v>
+        <v>50.49</v>
       </c>
       <c r="AA3">
         <v>53.42</v>
@@ -806,7 +806,7 @@
         <v>10.07</v>
       </c>
       <c r="AF3">
-        <v>50.4825</v>
+        <v>50.48</v>
       </c>
       <c r="AG3">
         <v>14.01</v>
